--- a/output.xlsx
+++ b/output.xlsx
@@ -1,23 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="EUR Buys" sheetId="1" r:id="rId1"/>
-    <sheet name="Buys" sheetId="2" r:id="rId2"/>
-    <sheet name="Sells" sheetId="3" r:id="rId3"/>
-    <sheet name="Bet Buys" sheetId="4" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="USD Buys" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buys" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sells" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Bet Buys" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="106">
+  <si>
+    <t>Code</t>
+  </si>
   <si>
     <t>vbce_buys</t>
   </si>
@@ -37,166 +41,154 @@
     <t>gastown_buys</t>
   </si>
   <si>
-    <t>Code</t>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>1.27970</t>
+  </si>
+  <si>
+    <t>1.2780</t>
+  </si>
+  <si>
+    <t>1.256200</t>
+  </si>
+  <si>
+    <t>1.28</t>
+  </si>
+  <si>
+    <t>1.28250</t>
+  </si>
+  <si>
+    <t>AUD</t>
+  </si>
+  <si>
+    <t>0.98510</t>
+  </si>
+  <si>
+    <t>0.9850</t>
+  </si>
+  <si>
+    <t>0.974100</t>
+  </si>
+  <si>
+    <t>0.987854</t>
+  </si>
+  <si>
+    <t>0.99000</t>
+  </si>
+  <si>
+    <t>GBP</t>
+  </si>
+  <si>
+    <t>1.76290</t>
+  </si>
+  <si>
+    <t>1.7700</t>
+  </si>
+  <si>
+    <t>1.738200</t>
+  </si>
+  <si>
+    <t>1.7600</t>
+  </si>
+  <si>
+    <t>1.77</t>
+  </si>
+  <si>
+    <t>1.77250</t>
+  </si>
+  <si>
+    <t>CHF</t>
+  </si>
+  <si>
+    <t>1.32920</t>
+  </si>
+  <si>
+    <t>1.3300</t>
+  </si>
+  <si>
+    <t>1.319600</t>
+  </si>
+  <si>
+    <t>1.339364</t>
+  </si>
+  <si>
+    <t>1.34250</t>
+  </si>
+  <si>
+    <t>COP</t>
+  </si>
+  <si>
+    <t>0.00046164</t>
+  </si>
+  <si>
+    <t>0.0004625</t>
   </si>
   <si>
     <t>EUR</t>
   </si>
   <si>
-    <t>1.48040</t>
-  </si>
-  <si>
-    <t>1.4850</t>
-  </si>
-  <si>
-    <t>1.449100</t>
-  </si>
-  <si>
-    <t>1.4800</t>
-  </si>
-  <si>
-    <t>1.482</t>
-  </si>
-  <si>
-    <t>1.48250</t>
-  </si>
-  <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>AUD</t>
-  </si>
-  <si>
-    <t>GBP</t>
-  </si>
-  <si>
-    <t>CHF</t>
-  </si>
-  <si>
-    <t>COP</t>
+    <t>1.57170</t>
+  </si>
+  <si>
+    <t>1.5770</t>
+  </si>
+  <si>
+    <t>1.549800</t>
+  </si>
+  <si>
+    <t>1.5700</t>
+  </si>
+  <si>
+    <t>1.575</t>
+  </si>
+  <si>
+    <t>1.57650</t>
   </si>
   <si>
     <t>JPY</t>
   </si>
   <si>
+    <t>0.01198</t>
+  </si>
+  <si>
+    <t>0.01200</t>
+  </si>
+  <si>
+    <t>0.011755</t>
+  </si>
+  <si>
+    <t>0.01205</t>
+  </si>
+  <si>
     <t>NZD</t>
   </si>
   <si>
+    <t>0.91700</t>
+  </si>
+  <si>
+    <t>0.9140</t>
+  </si>
+  <si>
+    <t>0.905600</t>
+  </si>
+  <si>
+    <t>0.92903</t>
+  </si>
+  <si>
+    <t>0.92750</t>
+  </si>
+  <si>
     <t>ZAR</t>
   </si>
   <si>
-    <t>1.27270</t>
-  </si>
-  <si>
-    <t>0.97110</t>
-  </si>
-  <si>
-    <t>1.66030</t>
-  </si>
-  <si>
-    <t>1.25920</t>
-  </si>
-  <si>
-    <t>0.01112</t>
-  </si>
-  <si>
-    <t>0.86900</t>
-  </si>
-  <si>
-    <t>0.08600</t>
-  </si>
-  <si>
-    <t>1.2760</t>
-  </si>
-  <si>
-    <t>0.9670</t>
-  </si>
-  <si>
-    <t>1.6950</t>
-  </si>
-  <si>
-    <t>1.2530</t>
-  </si>
-  <si>
-    <t>0.01120</t>
-  </si>
-  <si>
-    <t>0.8650</t>
-  </si>
-  <si>
-    <t>1.254900</t>
-  </si>
-  <si>
-    <t>0.956600</t>
-  </si>
-  <si>
-    <t>1.661600</t>
-  </si>
-  <si>
-    <t>1.244900</t>
-  </si>
-  <si>
-    <t>0.010908</t>
-  </si>
-  <si>
-    <t>0.858100</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>1.2720</t>
-  </si>
-  <si>
-    <t>0.9620</t>
-  </si>
-  <si>
-    <t>1.6600</t>
-  </si>
-  <si>
-    <t>1.273</t>
-  </si>
-  <si>
-    <t>0.971242</t>
-  </si>
-  <si>
-    <t>1.662</t>
-  </si>
-  <si>
-    <t>1.276022</t>
-  </si>
-  <si>
-    <t>0.00043099</t>
-  </si>
-  <si>
-    <t>0.0111</t>
-  </si>
-  <si>
-    <t>0.895701</t>
-  </si>
-  <si>
-    <t>1.27500</t>
-  </si>
-  <si>
-    <t>0.97250</t>
-  </si>
-  <si>
-    <t>1.66500</t>
-  </si>
-  <si>
-    <t>1.27750</t>
-  </si>
-  <si>
-    <t>0.0004280</t>
-  </si>
-  <si>
-    <t>0.011150</t>
-  </si>
-  <si>
-    <t>0.89600</t>
-  </si>
-  <si>
-    <t>0.08615</t>
+    <t>0.10300</t>
+  </si>
+  <si>
+    <t>0.103200</t>
+  </si>
+  <si>
+    <t>0.10350</t>
   </si>
   <si>
     <t>vbce_sells</t>
@@ -217,162 +209,155 @@
     <t>gastown_sells</t>
   </si>
   <si>
-    <t>1.29300</t>
-  </si>
-  <si>
-    <t>1.01460</t>
-  </si>
-  <si>
-    <t>1.70860</t>
-  </si>
-  <si>
-    <t>1.32610</t>
-  </si>
-  <si>
-    <t>1.52300</t>
-  </si>
-  <si>
-    <t>0.01157</t>
-  </si>
-  <si>
-    <t>0.91660</t>
-  </si>
-  <si>
-    <t>0.10180</t>
-  </si>
-  <si>
-    <t>1.2960</t>
-  </si>
-  <si>
-    <t>1.0170</t>
-  </si>
-  <si>
-    <t>1.7400</t>
-  </si>
-  <si>
-    <t>1.3230</t>
-  </si>
-  <si>
-    <t>1.5250</t>
-  </si>
-  <si>
-    <t>0.01170</t>
-  </si>
-  <si>
-    <t>0.9150</t>
-  </si>
-  <si>
-    <t>1.325900</t>
-  </si>
-  <si>
-    <t>1.023200</t>
-  </si>
-  <si>
-    <t>1.768800</t>
-  </si>
-  <si>
-    <t>1.331400</t>
-  </si>
-  <si>
-    <t>1.549100</t>
-  </si>
-  <si>
-    <t>0.011701</t>
-  </si>
-  <si>
-    <t>0.920400</t>
-  </si>
-  <si>
-    <t>0.096100</t>
-  </si>
-  <si>
-    <t>1.2920</t>
-  </si>
-  <si>
-    <t>1.7080</t>
-  </si>
-  <si>
-    <t>1.5230</t>
-  </si>
-  <si>
-    <t>0.01163</t>
-  </si>
-  <si>
-    <t>1.288</t>
-  </si>
-  <si>
-    <t>0.989045</t>
-  </si>
-  <si>
-    <t>1.7</t>
-  </si>
-  <si>
-    <t>1.301671</t>
-  </si>
-  <si>
-    <t>0.0004606</t>
-  </si>
-  <si>
-    <t>1.51</t>
-  </si>
-  <si>
-    <t>0.0114</t>
-  </si>
-  <si>
-    <t>0.90723</t>
-  </si>
-  <si>
-    <t>1.29000</t>
-  </si>
-  <si>
-    <t>0.99500</t>
-  </si>
-  <si>
-    <t>1.70000</t>
-  </si>
-  <si>
-    <t>1.30250</t>
-  </si>
-  <si>
-    <t>0.0004570</t>
-  </si>
-  <si>
-    <t>1.51000</t>
-  </si>
-  <si>
-    <t>0.011440</t>
-  </si>
-  <si>
-    <t>0.90750</t>
-  </si>
-  <si>
-    <t>0.10150</t>
+    <t>1.30000</t>
+  </si>
+  <si>
+    <t>1.2980</t>
+  </si>
+  <si>
+    <t>1.327200</t>
+  </si>
+  <si>
+    <t>1.3000</t>
+  </si>
+  <si>
+    <t>1.298</t>
+  </si>
+  <si>
+    <t>1.29750</t>
+  </si>
+  <si>
+    <t>1.02960</t>
+  </si>
+  <si>
+    <t>1.0350</t>
+  </si>
+  <si>
+    <t>1.041800</t>
+  </si>
+  <si>
+    <t>1.014987</t>
+  </si>
+  <si>
+    <t>1.01350</t>
+  </si>
+  <si>
+    <t>1.81150</t>
+  </si>
+  <si>
+    <t>1.8150</t>
+  </si>
+  <si>
+    <t>1.848300</t>
+  </si>
+  <si>
+    <t>1.8180</t>
+  </si>
+  <si>
+    <t>1.805</t>
+  </si>
+  <si>
+    <t>1.81000</t>
+  </si>
+  <si>
+    <t>1.39710</t>
+  </si>
+  <si>
+    <t>1.4000</t>
+  </si>
+  <si>
+    <t>1.411700</t>
+  </si>
+  <si>
+    <t>1.367804</t>
+  </si>
+  <si>
+    <t>1.36850</t>
+  </si>
+  <si>
+    <t>0.000484</t>
+  </si>
+  <si>
+    <t>0.0004825</t>
+  </si>
+  <si>
+    <t>1.61460</t>
+  </si>
+  <si>
+    <t>1.6170</t>
+  </si>
+  <si>
+    <t>1.654800</t>
+  </si>
+  <si>
+    <t>1.6220</t>
+  </si>
+  <si>
+    <t>1.61</t>
+  </si>
+  <si>
+    <t>1.61000</t>
+  </si>
+  <si>
+    <t>0.01235</t>
+  </si>
+  <si>
+    <t>0.01250</t>
+  </si>
+  <si>
+    <t>0.012607</t>
+  </si>
+  <si>
+    <t>0.01245</t>
+  </si>
+  <si>
+    <t>0.01230</t>
+  </si>
+  <si>
+    <t>0.96560</t>
+  </si>
+  <si>
+    <t>0.9640</t>
+  </si>
+  <si>
+    <t>0.971700</t>
+  </si>
+  <si>
+    <t>0.95249</t>
+  </si>
+  <si>
+    <t>0.94850</t>
+  </si>
+  <si>
+    <t>0.11900</t>
+  </si>
+  <si>
+    <t>0.114300</t>
+  </si>
+  <si>
+    <t>0.11850</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -387,35 +372,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -703,34 +679,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -747,466 +729,502 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" t="s">
-        <v>47</v>
-      </c>
       <c r="G4" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="E5" t="s"/>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>18</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="s"/>
+      <c r="E6" t="s"/>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G8" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E9" t="s"/>
       <c r="F9" t="s">
         <v>51</v>
       </c>
       <c r="G9" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C10" t="s"/>
       <c r="D10" t="s">
-        <v>41</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
       <c r="G10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" t="s">
         <v>66</v>
       </c>
-      <c r="C2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" t="s">
-        <v>89</v>
-      </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="G2" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F3" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="G3" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" t="s">
         <v>76</v>
       </c>
-      <c r="D4" t="s">
-        <v>83</v>
-      </c>
       <c r="E4" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="F4" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" t="s"/>
+      <c r="F5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" t="s">
         <v>84</v>
-      </c>
-      <c r="F5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>18</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="s"/>
+      <c r="E6" t="s"/>
       <c r="F6" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" t="s">
         <v>91</v>
       </c>
-      <c r="F7" t="s">
-        <v>98</v>
-      </c>
       <c r="G7" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D8" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E8" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G8" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="D9" t="s">
-        <v>87</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E9" t="s"/>
       <c r="F9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G9" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="C10" t="s"/>
       <c r="D10" t="s">
-        <v>88</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
       <c r="G10" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1214,10 +1232,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>